--- a/medicine/Enfance/Jodi_Lynn_Anderson/Jodi_Lynn_Anderson.xlsx
+++ b/medicine/Enfance/Jodi_Lynn_Anderson/Jodi_Lynn_Anderson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jodi Lynn Anderson, née dans le New Jersey, est une écrivaine américaine de fiction pour la jeunesse, de fantasy et de science-fiction, qui vit dans l'État de Géorgie, où se déroule l'action de plusieurs de ses romans[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jodi Lynn Anderson, née dans le New Jersey, est une écrivaine américaine de fiction pour la jeunesse, de fantasy et de science-fiction, qui vit dans l'État de Géorgie, où se déroule l'action de plusieurs de ses romans.
 Elle est notamment l'auteure de la série à succès Peau de pêche (Peaches en anglais).
 </t>
         </is>
@@ -514,20 +526,127 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série May Bird
-(en) The Ever After, 2005
+          <t>Série May Bird</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) The Ever After, 2005
 (en) Among the Stars, 2006
-(en) Warrior Princess, 2007
-Série Peau de pêche
-Peau de pêche[2], Albin Michel Jeunesse, coll. « Wiz », 2006 ((en) Peaches, 2005), trad. Claudine Richetin, 363 p.  (ISBN 2-226-17013-8)
+(en) Warrior Princess, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jodi_Lynn_Anderson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jodi_Lynn_Anderson</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Peau de pêche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Peau de pêche, Albin Michel Jeunesse, coll. « Wiz », 2006 ((en) Peaches, 2005), trad. Claudine Richetin, 363 p.  (ISBN 2-226-17013-8)
 Secrets de Pêches, Albin Michel Jeunesse, coll. « Wiz », 2007 ((en) The Secrets of Peaches, 2006), trad. Claudine Richetin, 379 p.  (ISBN 978-2-226-17788-9)
-Un amour de pêche, Albin Michel Jeunesse, coll. « Wiz », 2010 ((en) Love and Peaches, 2008), trad. Claudine Richetin, 292 p.  (ISBN 978-2-226-20866-8)
-Série Les Treize Sorcières
-La Voleuse de mémoire, Nathan, 2023 ((en) The Memory Thief, 2021), trad. Anne Guitton, 336 p.  (ISBN 978-2-09-249737-1)
+Un amour de pêche, Albin Michel Jeunesse, coll. « Wiz », 2010 ((en) Love and Peaches, 2008), trad. Claudine Richetin, 292 p.  (ISBN 978-2-226-20866-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jodi_Lynn_Anderson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jodi_Lynn_Anderson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Les Treize Sorcières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Voleuse de mémoire, Nathan, 2023 ((en) The Memory Thief, 2021), trad. Anne Guitton, 336 p.  (ISBN 978-2-09-249737-1)
 La Mer de l'Éternité, Nathan, 2023 ((en) The Sea of Always, 2022), trad. Anne Guitton, 336 p.  (ISBN 978-2-09-249739-5)
-Le Palais des rêves, Nathan, 2024 ((en) The Palace of Dreams, 2023), trad. Anne Guitton, 384 p.  (ISBN 978-2-09-249741-8)À paraître 1er février 2024
-Romans indépendants
-(en) Loser/Queen, 2010
+Le Palais des rêves, Nathan, 2024 ((en) The Palace of Dreams, 2023), trad. Anne Guitton, 384 p.  (ISBN 978-2-09-249741-8)À paraître 1er février 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jodi_Lynn_Anderson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jodi_Lynn_Anderson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Loser/Queen, 2010
 (en) Tiger Lily, 2012
 (en) The Vanishing Season, 2014
 (en) The Moment Collector, 2014
